--- a/web_ces/indicadores/SFE-SOJA_out.xlsx
+++ b/web_ces/indicadores/SFE-SOJA_out.xlsx
@@ -27813,13 +27813,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5E1522-06D8-46BF-9410-634F1EBC8D2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65CE6B5B-EA64-4AA7-8FA7-0D4984168760}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100B231B-F883-4459-A6B7-C6780E6E90DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB84316C-9630-48F6-AC7A-A7C9CDEE75C0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA2F2B4-C3C2-41BF-926A-FF4A9DFE1BB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94FF02F2-0CF1-47FD-B68C-4A481A91E066}"/>
 </file>